--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vfomiuk/Documents/GitHub/apache-poi-practice/"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
   <si>
     <t>id</t>
   </si>
@@ -299,12 +299,22 @@
   </si>
   <si>
     <t>ckirkj@discuz.net</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -655,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
@@ -663,12 +673,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.1640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -690,6 +700,9 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
@@ -710,6 +723,9 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
@@ -730,6 +746,9 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
+      <c r="G3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
@@ -749,6 +768,9 @@
       </c>
       <c r="F4" t="s">
         <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
